--- a/P3/P3_PeerReview.xlsx
+++ b/P3/P3_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA797B1-3126-4AB4-BBB4-92A70BA8EAF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C387F1C-0849-4F34-9976-906CF08D128D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Group</t>
   </si>
@@ -283,6 +283,14 @@
 Pavlo Vorontsov
 5/5
 Good work.</t>
+  </si>
+  <si>
+    <t>Andrew: 4/5 Worked on his part but left it until the last minute.
+Alexander: 3/5 Barely worked on his part until the last minute.</t>
+  </si>
+  <si>
+    <t>Todd Robinson- rating: 5 Todd work on the scatter plots and did a great job. It was a lot of data but he was able to represent it visually.
+Reid Malone- rating 5 Reid was a good leader and got all the code working together. He did a good job with the maps.</t>
   </si>
 </sst>
 </file>
@@ -649,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +793,9 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -906,12 +916,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">

--- a/P3/P3_PeerReview.xlsx
+++ b/P3/P3_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C387F1C-0849-4F34-9976-906CF08D128D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC2A197-40C3-49B9-B169-3E822538F08E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Group</t>
   </si>
@@ -291,6 +291,12 @@
   <si>
     <t>Todd Robinson- rating: 5 Todd work on the scatter plots and did a great job. It was a lot of data but he was able to represent it visually.
 Reid Malone- rating 5 Reid was a good leader and got all the code working together. He did a good job with the maps.</t>
+  </si>
+  <si>
+    <t>Nhat: It was a pleasure to work with Nhat and he did a good job leading the team.
+Rating: 5
+Hao: Hao was a good teammate and made valuable contributions to the team.
+Rating: 5</t>
   </si>
 </sst>
 </file>
@@ -657,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,14 +692,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">

--- a/P3/P3_PeerReview.xlsx
+++ b/P3/P3_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC2A197-40C3-49B9-B169-3E822538F08E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4A71D-24F7-43A7-A357-75EE383AD344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Group</t>
   </si>
@@ -297,6 +297,14 @@
 Rating: 5
 Hao: Hao was a good teammate and made valuable contributions to the team.
 Rating: 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat Le
+5 
+He is a hard-working student who has many contributions in the project, and finished all tasks assigned. He's always want to make the project in right way and encourage another teammates. He's one of the best teammates I've ever met. 
+Darien Sokolov
+5 
+He is also hard-working student. He is organized in coding, and well-understanding GitHub which helps to combine all teammates' work. He's active in every work he's responsible for, so he's another best teammate I've had opportunity to work with. </t>
   </si>
 </sst>
 </file>
@@ -663,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +718,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A5">

--- a/P3/P3_PeerReview.xlsx
+++ b/P3/P3_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4A71D-24F7-43A7-A357-75EE383AD344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA4211-3F9E-45C1-B066-7704AFDE4718}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Group</t>
   </si>
@@ -305,6 +305,10 @@
 Darien Sokolov
 5 
 He is also hard-working student. He is organized in coding, and well-understanding GitHub which helps to combine all teammates' work. He's active in every work he's responsible for, so he's another best teammate I've had opportunity to work with. </t>
+  </si>
+  <si>
+    <t>1. Jason Vermillion. Rating - 5. Jason was the true leader in our group. Implemented his part of the project in time, was a pleasure to work with him. 
+2. Chase Meyer. Rating - 5. Chase and I spent a lot of time working together which was very beneficial for the development process. Great teammate.</t>
   </si>
 </sst>
 </file>
@@ -671,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,14 +1018,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">

--- a/P3/P3_PeerReview.xlsx
+++ b/P3/P3_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA4211-3F9E-45C1-B066-7704AFDE4718}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2467EA-D24E-41DE-BC7B-C06A86A36B0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Group</t>
   </si>
@@ -309,6 +309,12 @@
   <si>
     <t>1. Jason Vermillion. Rating - 5. Jason was the true leader in our group. Implemented his part of the project in time, was a pleasure to work with him. 
 2. Chase Meyer. Rating - 5. Chase and I spent a lot of time working together which was very beneficial for the development process. Great teammate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braden Lee: 5, was very helpful and kept the project moving along. He was also very helpful with any team member's concerns.
+Arturo Mora: 5
+Mia Lyn Ward: 5
+Both Arturo and Mia worked on the parts they were assign and turn in progress on time. </t>
   </si>
 </sst>
 </file>
@@ -675,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,14 +836,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A16">

--- a/P3/P3_PeerReview.xlsx
+++ b/P3/P3_PeerReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTU-CS\Github\CS5331_Spring2019\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2467EA-D24E-41DE-BC7B-C06A86A36B0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE214E-7DD3-4808-9EE4-7A57BEE5A0AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E94E157-D904-4DD4-8FF9-3E443BED4110}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Group</t>
   </si>
@@ -145,14 +145,6 @@
   </si>
   <si>
     <t>Team Member: David Cooper.   Rate: 5/5  David was a good choice to work with for both projects. His work on the preprocessing was crucial. His knowledge of these topics is huge and he is always super positive and helpful.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandon Stehling: 
-1
-didn't do much but was there to try and help when asked.
-Matthew Hendrick
-2
-did the map but that's it. seemed on top of things but didn't actually do much. </t>
   </si>
   <si>
     <t xml:space="preserve">Indiana Cooper (4): He contributed greatly to the report, and the front end code for our UI. </t>
@@ -315,6 +307,24 @@
 Arturo Mora: 5
 Mia Lyn Ward: 5
 Both Arturo and Mia worked on the parts they were assign and turn in progress on time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Stehling: 
+2
+didn't do much but was there to try and help when asked.
+Matthew Hendrick
+3
+did the map but that's it. seemed on top of things but didn't actually do much. </t>
+  </si>
+  <si>
+    <t>Lino Virgen
+Rating: 5/5
+Review:
+Lino was our team leader and did his fair share of the work. He was great to work with, and he held me accountable to my share of the work.
+Alexander Tesfazgi
+Rating: 4.5/5
+Review:
+Alexander did his fair share of the work, but I didn't see him much during our scheduled class time. I do know he was in communication with Lino outside of class, but it would have been nice to discuss the project more with all three of us there.</t>
   </si>
 </sst>
 </file>
@@ -681,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895BF0F-A436-4AA9-BB43-4FAEB3E2D715}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -718,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -740,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -811,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,7 +832,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -833,7 +843,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -844,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="360" x14ac:dyDescent="0.25">
@@ -855,7 +865,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -866,7 +876,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
@@ -877,7 +887,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -888,7 +898,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -899,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -910,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -921,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -932,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -954,15 +964,18 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -973,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,7 +1005,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -1023,7 +1036,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1034,7 +1047,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1074,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
